--- a/biology/Botanique/Trichomanes_spruceanum/Trichomanes_spruceanum.xlsx
+++ b/biology/Botanique/Trichomanes_spruceanum/Trichomanes_spruceanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichomanes spruceanum est une espèce de fougères de la famille des Hyménophyllacées.
 Cette espèce est dédiée au botaniste collecteur Richard Spruce qui l'a découverte en 1852 sur les rives du Rio Negro.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trichomanes spruceanum est classé dans le sous-genre Trichomanes.
 Cette espèce a les caractéristiques suivantes :
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, principalement terrestre, est présente dans les forêts denses d'Amérique du Sud tropicale, principalement amazonienne : Brésil, Équateur, Guyana, Pérou et Venezuela.
 </t>
